--- a/data/trans_camb/IP16B02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 21,99</t>
+          <t>-35,22; 22,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,07</t>
+          <t>0,0; 43,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 28,6</t>
+          <t>-37,89; 27,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 13,17</t>
+          <t>-64,13; 15,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 15,52</t>
+          <t>-28,83; 14,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 14,87</t>
+          <t>-31,06; 17,61</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 31,26</t>
+          <t>-38,25; 30,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,65</t>
+          <t>0,0; 77,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 47,62</t>
+          <t>-42,15; 37,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,72; 10,59</t>
+          <t>-69,97; 22,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 20,62</t>
+          <t>-32,24; 20,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 20,8</t>
+          <t>-35,38; 22,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 10,99</t>
+          <t>-11,48; 9,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 10,83</t>
+          <t>-13,71; 10,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 15,67</t>
+          <t>-14,83; 17,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 25,83</t>
+          <t>-4,46; 26,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 8,97</t>
+          <t>-10,56; 8,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 14,36</t>
+          <t>-5,21; 13,58</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 13,21</t>
+          <t>-12,07; 11,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 12,88</t>
+          <t>-14,56; 12,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 23,61</t>
+          <t>-16,84; 26,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 39,73</t>
+          <t>-5,05; 40,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 11,58</t>
+          <t>-11,91; 10,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 18,61</t>
+          <t>-5,79; 17,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 15,25</t>
+          <t>-29,54; 15,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 20,34</t>
+          <t>-13,13; 23,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 40,32</t>
+          <t>-9,62; 40,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 29,58</t>
+          <t>-27,02; 26,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 17,22</t>
+          <t>-12,06; 17,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 14,32</t>
+          <t>-15,03; 14,7</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 19,09</t>
+          <t>-31,88; 19,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 28,08</t>
+          <t>-13,17; 32,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 69,49</t>
+          <t>-10,22; 72,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 47,13</t>
+          <t>-29,56; 39,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 22,64</t>
+          <t>-13,45; 23,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 19,02</t>
+          <t>-16,18; 19,07</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 8,14</t>
+          <t>-10,9; 8,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 11,81</t>
+          <t>-7,02; 11,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 13,3</t>
+          <t>-10,7; 13,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 16,54</t>
+          <t>-9,05; 15,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 5,77</t>
+          <t>-8,64; 6,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 9,16</t>
+          <t>-6,11; 9,2</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 9,74</t>
+          <t>-11,69; 9,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 14,41</t>
+          <t>-7,42; 13,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 19,57</t>
+          <t>-12,15; 19,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 23,16</t>
+          <t>-10,59; 22,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 7,2</t>
+          <t>-9,79; 8,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 11,31</t>
+          <t>-6,85; 11,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-24,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,31; 27,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,24; 16,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,79; 22,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,91; 15,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,89; 14,41</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,58%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,9; 41,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,51; 22,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,23; 31,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,87; 22,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,11; 18,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,55</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,72</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>4,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 22,21</t>
+          <t>-14,92; 15,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,66</t>
+          <t>-3,69; 26,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 27,19</t>
+          <t>-11,17; 10,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 15,64</t>
+          <t>-14,77; 11,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 14,78</t>
+          <t>-10,03; 9,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 17,61</t>
+          <t>-5,92; 14,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,89%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 30,42</t>
+          <t>-17,05; 22,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,49</t>
+          <t>-3,72; 40,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 37,42</t>
+          <t>-11,96; 12,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 22,65</t>
+          <t>-15,39; 13,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 20,28</t>
+          <t>-11,36; 11,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 22,39</t>
+          <t>-6,56; 18,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 9,88</t>
+          <t>-7,96; 42,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 10,77</t>
+          <t>-27,17; 26,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 17,7</t>
+          <t>-28,25; 15,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 26,63</t>
+          <t>-15,81; 20,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 8,7</t>
+          <t>-14,21; 16,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 13,58</t>
+          <t>-14,97; 16,39</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>-1,2%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 11,79</t>
+          <t>-8,06; 77,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 12,47</t>
+          <t>-29,71; 43,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 26,47</t>
+          <t>-30,62; 18,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 40,46</t>
+          <t>-16,29; 26,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 10,98</t>
+          <t>-15,09; 21,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 17,21</t>
+          <t>-16,21; 22,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 15,48</t>
+          <t>-11,16; 13,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 23,13</t>
+          <t>-11,05; 15,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 40,84</t>
+          <t>-10,49; 8,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 26,04</t>
+          <t>-7,23; 11,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 17,36</t>
+          <t>-8,44; 5,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 14,7</t>
+          <t>-6,79; 8,47</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1183,207 +1183,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,88; 19,07</t>
+          <t>-12,88; 19,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 32,12</t>
+          <t>-12,64; 21,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 72,58</t>
+          <t>-11,32; 9,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 39,73</t>
+          <t>-7,73; 13,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 23,17</t>
+          <t>-9,6; 7,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 19,07</t>
+          <t>-7,5; 10,42</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 8,31</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 11,53</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 13,68</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 15,93</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 6,49</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 9,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,69; 9,62</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 13,95</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 19,11</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 22,3</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 8,09</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 11,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
